--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N2">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O2">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P2">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q2">
-        <v>0.200651640411357</v>
+        <v>0.25132199472</v>
       </c>
       <c r="R2">
-        <v>0.200651640411357</v>
+        <v>1.00528797888</v>
       </c>
       <c r="S2">
-        <v>6.373586144132451E-06</v>
+        <v>7.219650017352909E-06</v>
       </c>
       <c r="T2">
-        <v>6.373586144132451E-06</v>
+        <v>3.218313004807618E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N3">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P3">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q3">
-        <v>74.42160878446806</v>
+        <v>0.009202857873333333</v>
       </c>
       <c r="R3">
-        <v>74.42160878446806</v>
+        <v>0.05521714724</v>
       </c>
       <c r="S3">
-        <v>0.002363960412186514</v>
+        <v>2.643676813043375E-07</v>
       </c>
       <c r="T3">
-        <v>0.002363960412186514</v>
+        <v>1.767713001490905E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N4">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="O4">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P4">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q4">
-        <v>61.88822539562104</v>
+        <v>84.55403190356334</v>
       </c>
       <c r="R4">
-        <v>61.88822539562104</v>
+        <v>507.32419142138</v>
       </c>
       <c r="S4">
-        <v>0.001965844560541905</v>
+        <v>0.002428957794083751</v>
       </c>
       <c r="T4">
-        <v>0.001965844560541905</v>
+        <v>0.00162413962685993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H5">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I5">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J5">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.325460127842106</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N5">
-        <v>0.325460127842106</v>
+        <v>301.895584</v>
       </c>
       <c r="O5">
-        <v>0.001469862473972854</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P5">
-        <v>0.001469862473972854</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q5">
-        <v>32.99501898407685</v>
+        <v>68.25959786101333</v>
       </c>
       <c r="R5">
-        <v>32.99501898407685</v>
+        <v>409.5575871660799</v>
       </c>
       <c r="S5">
-        <v>0.001048068161272787</v>
+        <v>0.00196087257476534</v>
       </c>
       <c r="T5">
-        <v>0.001048068161272787</v>
+        <v>0.001311151169302466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H6">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I6">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J6">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>120.713024122564</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N6">
-        <v>120.713024122564</v>
+        <v>1.236532</v>
       </c>
       <c r="O6">
-        <v>0.5451713715408358</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P6">
-        <v>0.5451713715408358</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q6">
-        <v>12237.8386223753</v>
+        <v>0.2795840069733333</v>
       </c>
       <c r="R6">
-        <v>12237.8386223753</v>
+        <v>1.67750404184</v>
       </c>
       <c r="S6">
-        <v>0.3887280388926507</v>
+        <v>8.031524192880327E-06</v>
       </c>
       <c r="T6">
-        <v>0.3887280388926507</v>
+        <v>5.370334856173043E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H7">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I7">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J7">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.383678438344</v>
+        <v>0.370512</v>
       </c>
       <c r="N7">
-        <v>100.383678438344</v>
+        <v>0.741024</v>
       </c>
       <c r="O7">
-        <v>0.4533587659851912</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P7">
-        <v>0.4533587659851912</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q7">
-        <v>10176.85760073041</v>
+        <v>40.0485741528</v>
       </c>
       <c r="R7">
-        <v>10176.85760073041</v>
+        <v>240.2914449168</v>
       </c>
       <c r="S7">
-        <v>0.3232621396059768</v>
+        <v>0.001150463131566942</v>
       </c>
       <c r="T7">
-        <v>0.3232621396059768</v>
+        <v>0.0007692652238628458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H8">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J8">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.325460127842106</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N8">
-        <v>0.325460127842106</v>
+        <v>0.040702</v>
       </c>
       <c r="O8">
-        <v>0.001469862473972854</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P8">
-        <v>0.001469862473972854</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q8">
-        <v>4.360174736024077</v>
+        <v>1.466490572655555</v>
       </c>
       <c r="R8">
-        <v>4.360174736024077</v>
+        <v>13.1984151539</v>
       </c>
       <c r="S8">
-        <v>0.0001384984903514723</v>
+        <v>4.212742581530216E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001384984903514723</v>
+        <v>4.225319711867031E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H9">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J9">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.713024122564</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N9">
-        <v>120.713024122564</v>
+        <v>373.961899</v>
       </c>
       <c r="O9">
-        <v>0.5451713715408358</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P9">
-        <v>0.5451713715408358</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q9">
-        <v>1617.18697026879</v>
+        <v>13473.82436774284</v>
       </c>
       <c r="R9">
-        <v>1617.18697026879</v>
+        <v>121264.4193096856</v>
       </c>
       <c r="S9">
-        <v>0.0513690316463184</v>
+        <v>0.3870584285261662</v>
       </c>
       <c r="T9">
-        <v>0.0513690316463184</v>
+        <v>0.3882139903031614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H10">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J10">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.383678438344</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N10">
-        <v>100.383678438344</v>
+        <v>301.895584</v>
       </c>
       <c r="O10">
-        <v>0.4533587659851912</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P10">
-        <v>0.4533587659851912</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q10">
-        <v>1344.835637895324</v>
+        <v>10877.27944234542</v>
       </c>
       <c r="R10">
-        <v>1344.835637895324</v>
+        <v>97895.51498110879</v>
       </c>
       <c r="S10">
-        <v>0.04271794524207646</v>
+        <v>0.3124682772081794</v>
       </c>
       <c r="T10">
-        <v>0.04271794524207646</v>
+        <v>0.3134011503122227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H11">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J11">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.325460127842106</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N11">
-        <v>0.325460127842106</v>
+        <v>1.236532</v>
       </c>
       <c r="O11">
-        <v>0.001469862473972854</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P11">
-        <v>0.001469862473972854</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q11">
-        <v>8.196288562312839</v>
+        <v>44.55217239415555</v>
       </c>
       <c r="R11">
-        <v>8.196288562312839</v>
+        <v>400.9695515474</v>
       </c>
       <c r="S11">
-        <v>0.0002603504815957218</v>
+        <v>0.001279836619779058</v>
       </c>
       <c r="T11">
-        <v>0.0002603504815957218</v>
+        <v>0.001283657568167255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.1836949019119</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H12">
-        <v>25.1836949019119</v>
+        <v>52.749977</v>
       </c>
       <c r="I12">
-        <v>0.1771257421737063</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J12">
-        <v>0.1771257421737063</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>120.713024122564</v>
+        <v>0.370512</v>
       </c>
       <c r="N12">
-        <v>120.713024122564</v>
+        <v>0.741024</v>
       </c>
       <c r="O12">
-        <v>0.5451713715408358</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P12">
-        <v>0.5451713715408358</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q12">
-        <v>3039.999970189783</v>
+        <v>6.514833159408</v>
       </c>
       <c r="R12">
-        <v>3039.999970189783</v>
+        <v>39.088998956448</v>
       </c>
       <c r="S12">
-        <v>0.09656388379602796</v>
+        <v>0.000187149618101564</v>
       </c>
       <c r="T12">
-        <v>0.09656388379602796</v>
+        <v>0.0001251389018165756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.1836949019119</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H13">
-        <v>25.1836949019119</v>
+        <v>52.749977</v>
       </c>
       <c r="I13">
-        <v>0.1771257421737063</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J13">
-        <v>0.1771257421737063</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>100.383678438344</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N13">
-        <v>100.383678438344</v>
+        <v>0.040702</v>
       </c>
       <c r="O13">
-        <v>0.4533587659851912</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P13">
-        <v>0.4533587659851912</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q13">
-        <v>2528.031930922888</v>
+        <v>0.2385588404282222</v>
       </c>
       <c r="R13">
-        <v>2528.031930922888</v>
+        <v>2.147029563854</v>
       </c>
       <c r="S13">
-        <v>0.08030150789608265</v>
+        <v>6.853006790576156E-06</v>
       </c>
       <c r="T13">
-        <v>0.08030150789608265</v>
+        <v>6.873466421786958E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H14">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I14">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J14">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.325460127842106</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N14">
-        <v>0.325460127842106</v>
+        <v>373.961899</v>
       </c>
       <c r="O14">
-        <v>0.001469862473972854</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P14">
-        <v>0.001469862473972854</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q14">
-        <v>0.3838063588859609</v>
+        <v>2191.831285680703</v>
       </c>
       <c r="R14">
-        <v>0.3838063588859609</v>
+        <v>19726.48157112633</v>
       </c>
       <c r="S14">
-        <v>1.219139243521993E-05</v>
+        <v>0.06296406646513081</v>
       </c>
       <c r="T14">
-        <v>1.219139243521993E-05</v>
+        <v>0.06315204549663864</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,122 +1340,122 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H15">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I15">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J15">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>120.713024122564</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N15">
-        <v>120.713024122564</v>
+        <v>301.895584</v>
       </c>
       <c r="O15">
-        <v>0.5451713715408358</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P15">
-        <v>0.5451713715408358</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q15">
-        <v>142.353616603602</v>
+        <v>1769.442790266841</v>
       </c>
       <c r="R15">
-        <v>142.353616603602</v>
+        <v>15924.98511240157</v>
       </c>
       <c r="S15">
-        <v>0.004521782311332188</v>
+        <v>0.05083024144260611</v>
       </c>
       <c r="T15">
-        <v>0.004521782311332188</v>
+        <v>0.05098199497591676</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H16">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I16">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J16">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>100.383678438344</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N16">
-        <v>100.383678438344</v>
+        <v>1.236532</v>
       </c>
       <c r="O16">
-        <v>0.4533587659851912</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P16">
-        <v>0.4533587659851912</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q16">
-        <v>118.379767034601</v>
+        <v>7.247448284418223</v>
       </c>
       <c r="R16">
-        <v>118.379767034601</v>
+        <v>65.22703455976399</v>
       </c>
       <c r="S16">
-        <v>0.003760266506521193</v>
+        <v>0.0002081952285579262</v>
       </c>
       <c r="T16">
-        <v>0.003760266506521193</v>
+        <v>0.0002088167947880957</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.423712312194253</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H17">
-        <v>0.423712312194253</v>
+        <v>77.988344</v>
       </c>
       <c r="I17">
-        <v>0.002980117018485899</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J17">
-        <v>0.002980117018485899</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N17">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O17">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P17">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q17">
-        <v>0.1379014632950159</v>
+        <v>9.631872437376</v>
       </c>
       <c r="R17">
-        <v>0.1379014632950159</v>
+        <v>57.791234624256</v>
       </c>
       <c r="S17">
-        <v>4.380362173520289E-06</v>
+        <v>0.0002766918513722461</v>
       </c>
       <c r="T17">
-        <v>4.380362173520289E-06</v>
+        <v>0.0001850119427095356</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.423712312194253</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H18">
-        <v>0.423712312194253</v>
+        <v>77.988344</v>
       </c>
       <c r="I18">
-        <v>0.002980117018485899</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J18">
-        <v>0.002980117018485899</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N18">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O18">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P18">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q18">
-        <v>51.14759456293223</v>
+        <v>0.3526979530542222</v>
       </c>
       <c r="R18">
-        <v>51.14759456293223</v>
+        <v>3.174281577488</v>
       </c>
       <c r="S18">
-        <v>0.001624674482320144</v>
+        <v>1.013184614313271E-05</v>
       </c>
       <c r="T18">
-        <v>0.001624674482320144</v>
+        <v>1.016209473939241E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H19">
+        <v>77.988344</v>
+      </c>
+      <c r="I19">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J19">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N19">
+        <v>373.961899</v>
+      </c>
+      <c r="O19">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P19">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q19">
+        <v>3240.51880245614</v>
+      </c>
+      <c r="R19">
+        <v>29164.66922210526</v>
+      </c>
+      <c r="S19">
+        <v>0.0930893917758767</v>
+      </c>
+      <c r="T19">
+        <v>0.09336730987570867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H20">
+        <v>77.988344</v>
+      </c>
+      <c r="I20">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J20">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N20">
+        <v>301.895584</v>
+      </c>
+      <c r="O20">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P20">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q20">
+        <v>2616.037406341433</v>
+      </c>
+      <c r="R20">
+        <v>23544.33665707289</v>
+      </c>
+      <c r="S20">
+        <v>0.07515010585178115</v>
+      </c>
+      <c r="T20">
+        <v>0.07537446626731359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H21">
+        <v>77.988344</v>
+      </c>
+      <c r="I21">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J21">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.236532</v>
+      </c>
+      <c r="O21">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P21">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q21">
+        <v>10.71500922033422</v>
+      </c>
+      <c r="R21">
+        <v>96.435082983008</v>
+      </c>
+      <c r="S21">
+        <v>0.0003078067902083479</v>
+      </c>
+      <c r="T21">
+        <v>0.0003087257464569399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.181792</v>
+      </c>
+      <c r="H22">
+        <v>3.545376</v>
+      </c>
+      <c r="I22">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J22">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.370512</v>
+      </c>
+      <c r="N22">
+        <v>0.741024</v>
+      </c>
+      <c r="O22">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P22">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q22">
+        <v>0.437868117504</v>
+      </c>
+      <c r="R22">
+        <v>2.627208705024</v>
+      </c>
+      <c r="S22">
+        <v>1.25785033882849E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.410704314939198E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.181792</v>
+      </c>
+      <c r="H23">
+        <v>3.545376</v>
+      </c>
+      <c r="I23">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J23">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.040702</v>
+      </c>
+      <c r="O23">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P23">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.01603376599466667</v>
+      </c>
+      <c r="R23">
+        <v>0.144303893952</v>
+      </c>
+      <c r="S23">
+        <v>4.605970880924882E-07</v>
+      </c>
+      <c r="T23">
+        <v>4.619721993169657E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.181792</v>
+      </c>
+      <c r="H24">
+        <v>3.545376</v>
+      </c>
+      <c r="I24">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J24">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N24">
+        <v>373.961899</v>
+      </c>
+      <c r="O24">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P24">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q24">
+        <v>147.3150601810027</v>
+      </c>
+      <c r="R24">
+        <v>1325.835541629024</v>
+      </c>
+      <c r="S24">
+        <v>0.004231874643431211</v>
+      </c>
+      <c r="T24">
+        <v>0.004244508892481427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.181792</v>
+      </c>
+      <c r="H25">
+        <v>3.545376</v>
+      </c>
+      <c r="I25">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J25">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N25">
+        <v>301.895584</v>
+      </c>
+      <c r="O25">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P25">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q25">
+        <v>118.9259286688427</v>
+      </c>
+      <c r="R25">
+        <v>1070.333358019584</v>
+      </c>
+      <c r="S25">
+        <v>0.00341634875186431</v>
+      </c>
+      <c r="T25">
+        <v>0.003426548250812239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.181792</v>
+      </c>
+      <c r="H26">
+        <v>3.545376</v>
+      </c>
+      <c r="I26">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J26">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.236532</v>
+      </c>
+      <c r="O26">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P26">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q26">
+        <v>0.4871078751146666</v>
+      </c>
+      <c r="R26">
+        <v>4.383970876032</v>
+      </c>
+      <c r="S26">
+        <v>1.399299883379639E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.403477488982866E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.444929</v>
+      </c>
+      <c r="H27">
+        <v>0.889858</v>
+      </c>
+      <c r="I27">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J27">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.370512</v>
+      </c>
+      <c r="N27">
+        <v>0.741024</v>
+      </c>
+      <c r="O27">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P27">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q27">
+        <v>0.164851533648</v>
+      </c>
+      <c r="R27">
+        <v>0.659406134592</v>
+      </c>
+      <c r="S27">
+        <v>4.735639549130653E-06</v>
+      </c>
+      <c r="T27">
+        <v>2.111012349686793E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.444929</v>
+      </c>
+      <c r="H28">
+        <v>0.889858</v>
+      </c>
+      <c r="I28">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J28">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.040702</v>
+      </c>
+      <c r="O28">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P28">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.006036500052666667</v>
+      </c>
+      <c r="R28">
+        <v>0.03621900031600001</v>
+      </c>
+      <c r="S28">
+        <v>1.734086893530357E-07</v>
+      </c>
+      <c r="T28">
+        <v>1.159509336498573E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.444929</v>
+      </c>
+      <c r="H29">
+        <v>0.889858</v>
+      </c>
+      <c r="I29">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J29">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N29">
+        <v>373.961899</v>
+      </c>
+      <c r="O29">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P29">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q29">
+        <v>55.46216458672367</v>
+      </c>
+      <c r="R29">
+        <v>332.772987520342</v>
+      </c>
+      <c r="S29">
+        <v>0.001593244626150123</v>
+      </c>
+      <c r="T29">
+        <v>0.00106533416880064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="H19">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="I19">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="J19">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>100.383678438344</v>
-      </c>
-      <c r="N19">
-        <v>100.383678438344</v>
-      </c>
-      <c r="O19">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="P19">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="Q19">
-        <v>42.53380049767512</v>
-      </c>
-      <c r="R19">
-        <v>42.53380049767512</v>
-      </c>
-      <c r="S19">
-        <v>0.001351062173992234</v>
-      </c>
-      <c r="T19">
-        <v>0.001351062173992234</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.444929</v>
+      </c>
+      <c r="H30">
+        <v>0.889858</v>
+      </c>
+      <c r="I30">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J30">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N30">
+        <v>301.895584</v>
+      </c>
+      <c r="O30">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P30">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q30">
+        <v>44.77403343117867</v>
+      </c>
+      <c r="R30">
+        <v>268.644200587072</v>
+      </c>
+      <c r="S30">
+        <v>0.001286209953882101</v>
+      </c>
+      <c r="T30">
+        <v>0.0008600332865600934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.444929</v>
+      </c>
+      <c r="H31">
+        <v>0.889858</v>
+      </c>
+      <c r="I31">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J31">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.236532</v>
+      </c>
+      <c r="O31">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P31">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q31">
+        <v>0.1833896487426667</v>
+      </c>
+      <c r="R31">
+        <v>1.100337892456</v>
+      </c>
+      <c r="S31">
+        <v>5.268178307284357E-06</v>
+      </c>
+      <c r="T31">
+        <v>3.522604291875715E-06</v>
       </c>
     </row>
   </sheetData>
